--- a/colloidal_parameters/data/cp_features_and_description.xlsx
+++ b/colloidal_parameters/data/cp_features_and_description.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$PDI$</t>
+          <t>$ИПД$</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$d_{av}, nm$</t>
+          <t>$d_{ср}, нм$</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>$ζ, mV$</t>
+          <t>$ζ, мВ$</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -522,7 +522,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$rGO$</t>
+          <t>$вОГ$</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$rGO$</t>
+          <t>$вОГ$</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -778,7 +778,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$GO$</t>
+          <t>$ОГ$</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$rGO$</t>
+          <t>$вОГ$</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -970,7 +970,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$GO_{d}$</t>
+          <t>$ОГ_{диализ}$</t>
         </is>
       </c>
       <c r="G26" t="n">
